--- a/Guia de arboles y otras plantas nativas de Mty.xlsx
+++ b/Guia de arboles y otras plantas nativas de Mty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/carlos_martinezhrn_uanl_edu_mx/Documents/Documents/Github Projects/Guia-de-Arboles-y-Plantas-Nativas-de-Monterrey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFCD724-FA5E-484E-B936-4F694232166C}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92B1AD90-49C1-4808-91B2-307404802116}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="8" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario de Floracion" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="230">
   <si>
     <t>Nombre Comun</t>
   </si>
@@ -665,9 +665,6 @@
     <t>Acacia bernlandieri</t>
   </si>
   <si>
-    <t>Leguminosae</t>
-  </si>
-  <si>
     <t>Drenado Intermedio</t>
   </si>
   <si>
@@ -705,6 +702,42 @@
   </si>
   <si>
     <t>Codigo RGB</t>
+  </si>
+  <si>
+    <t>Echinocactus y Ferocactus</t>
+  </si>
+  <si>
+    <t>Cactaceae</t>
+  </si>
+  <si>
+    <t>valle y Desierto</t>
+  </si>
+  <si>
+    <t>Larrea Tridentata</t>
+  </si>
+  <si>
+    <t>Zygophyllaceae</t>
+  </si>
+  <si>
+    <t>Agave lecheguilla</t>
+  </si>
+  <si>
+    <t>Agavaceae</t>
+  </si>
+  <si>
+    <t>Agave americana</t>
+  </si>
+  <si>
+    <t>Asparagaceae</t>
+  </si>
+  <si>
+    <t>Aracaceae</t>
+  </si>
+  <si>
+    <t>Cupressaceae</t>
+  </si>
+  <si>
+    <t>Taxodium mucronatum</t>
   </si>
 </sst>
 </file>
@@ -806,10 +839,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,54 +1241,54 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10" t="s">
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10" t="s">
+      <c r="W1" s="11"/>
+      <c r="X1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10" t="s">
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="10"/>
+      <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -2330,7 +2363,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,6 +2451,9 @@
       <c r="B3" t="s">
         <v>141</v>
       </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2466,6 +2502,9 @@
       <c r="B9" t="s">
         <v>147</v>
       </c>
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2474,6 +2513,9 @@
       <c r="B10" t="s">
         <v>148</v>
       </c>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2482,6 +2524,9 @@
       <c r="B11" t="s">
         <v>149</v>
       </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2506,6 +2551,9 @@
       <c r="B14" t="s">
         <v>152</v>
       </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2545,6 +2593,9 @@
       </c>
       <c r="B19" t="s">
         <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2630,7 +2681,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2817,7 +2868,7 @@
         <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
         <v>77</v>
@@ -2835,7 +2886,7 @@
         <v>166</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K4" t="s">
         <v>199</v>
@@ -2864,10 +2915,10 @@
         <v>119</v>
       </c>
       <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
         <v>207</v>
-      </c>
-      <c r="D5" t="s">
-        <v>208</v>
       </c>
       <c r="E5" t="s">
         <v>78</v>
@@ -2903,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2914,10 +2965,10 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
         <v>210</v>
-      </c>
-      <c r="D6" t="s">
-        <v>211</v>
       </c>
       <c r="E6" t="s">
         <v>78</v>
@@ -2935,7 +2986,7 @@
         <v>203</v>
       </c>
       <c r="J6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K6" t="s">
         <v>199</v>
@@ -2950,7 +3001,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2961,10 +3012,10 @@
         <v>121</v>
       </c>
       <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
         <v>213</v>
-      </c>
-      <c r="D7" t="s">
-        <v>214</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
@@ -2979,7 +3030,7 @@
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J7" t="s">
         <v>97</v>
@@ -2991,7 +3042,7 @@
         <v>184</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3002,10 +3053,10 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
         <v>215</v>
-      </c>
-      <c r="D8" t="s">
-        <v>216</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
@@ -3119,10 +3170,25 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:J14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3196,6 +3262,48 @@
       <c r="B2" t="s">
         <v>123</v>
       </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2">
+        <v>0.7</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3204,6 +3312,48 @@
       <c r="B3" t="s">
         <v>124</v>
       </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
+        <v>1.6</v>
+      </c>
+      <c r="O3">
+        <v>1.6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -3212,6 +3362,48 @@
       <c r="B4" t="s">
         <v>125</v>
       </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4">
+        <v>0.6</v>
+      </c>
+      <c r="N4">
+        <v>0.8</v>
+      </c>
+      <c r="O4">
+        <v>0.8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3220,6 +3412,48 @@
       <c r="B5" t="s">
         <v>126</v>
       </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5">
+        <v>1.2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3228,6 +3462,9 @@
       <c r="B6" t="s">
         <v>127</v>
       </c>
+      <c r="P6" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -3244,6 +3481,9 @@
       <c r="B8" t="s">
         <v>129</v>
       </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -3259,6 +3499,9 @@
       </c>
       <c r="B10" t="s">
         <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -3364,7 +3607,7 @@
       <c r="B2" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3375,7 +3618,7 @@
       <c r="B3" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3386,7 +3629,7 @@
       <c r="B4" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3428,7 +3671,7 @@
       <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3439,7 +3682,7 @@
       <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3450,7 +3693,7 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3683,7 +3926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC43BC44-11EE-4A7A-97EC-4F990AD9F102}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3694,7 +3937,7 @@
         <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
         <v>159</v>
@@ -3724,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC219292-3949-4AA0-84E7-7F151D5D8C5B}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3822,6 +4065,12 @@
       <c r="B2" t="s">
         <v>132</v>
       </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
       <c r="E2" t="s">
         <v>161</v>
       </c>
@@ -4131,6 +4380,9 @@
       </c>
       <c r="B10" t="s">
         <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
       </c>
       <c r="E10" t="s">
         <v>160</v>

--- a/Guia de arboles y otras plantas nativas de Mty.xlsx
+++ b/Guia de arboles y otras plantas nativas de Mty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/carlos_martinezhrn_uanl_edu_mx/Documents/Documents/Github Projects/Guia-de-Arboles-y-Plantas-Nativas-de-Monterrey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92B1AD90-49C1-4808-91B2-307404802116}"/>
+  <xr:revisionPtr revIDLastSave="855" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA1BBFD-8AD6-407B-83F6-B3ACDA6CEA6F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="8" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
+    <workbookView xWindow="9972" yWindow="36" windowWidth="13080" windowHeight="5148" firstSheet="8" activeTab="10" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario de Floracion" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="283">
   <si>
     <t>Nombre Comun</t>
   </si>
@@ -434,9 +434,6 @@
     <t>Nopal de monte</t>
   </si>
   <si>
-    <t>Ocotillo</t>
-  </si>
-  <si>
     <t>Palma yuca</t>
   </si>
   <si>
@@ -464,9 +461,6 @@
     <t>Pino blanco</t>
   </si>
   <si>
-    <t>Pino teocote</t>
-  </si>
-  <si>
     <t>Sauce de rio</t>
   </si>
   <si>
@@ -587,9 +581,6 @@
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">"+ 150 años </t>
-  </si>
-  <si>
     <t>Drenado Lento o Drenado Medio</t>
   </si>
   <si>
@@ -738,6 +729,174 @@
   </si>
   <si>
     <t>Taxodium mucronatum</t>
+  </si>
+  <si>
+    <t>Follaje caduco o caducifilio, es decir que durante el otoño este cae. El arbol queda casi o totalmenete desprovisto de follaje, lo que le otorga un aspecto invernal</t>
+  </si>
+  <si>
+    <t>follaje semiperenne. Se trata de aquel arbol que durante el invierno pierde una cantidad significativa de follaje, lo que se aprecia a primera vsita. Sin embargo, su copa sigue proyectando cierta sombra. En ocasiones, las hojas remanentes se tiñen de un color otoñal.</t>
+  </si>
+  <si>
+    <t>Follaje que se mantiene constante en el arbol durante los doce meses del año. El color de las hojas si puede llegar a cambiar en la epoca otoñal ; sin embargo, la mayoria de las especies se mantienen verdes. En algunos arboles las hojas si se mudan, pero lo hacen de modo paulatino, lo que vuelve imperceptible el cambio</t>
+  </si>
+  <si>
+    <t>Estos arboles son recomendados para proyectos a largo plazo, donde no se requiera un efecto inmediato. Usualmente las especies de lento crecimiento son muy longevas</t>
+  </si>
+  <si>
+    <t>Estas especies pueden ser utilizadas en un proyecto de corto o mediano plazo. Si se aplica un riego constante durante los primero años, el crecimiento se puede acelerar.</t>
+  </si>
+  <si>
+    <t>las especies de rapido desarrollo son ideales para regeneracion de suelos o de ecosistemas, asi como para proyectos de corto plazo en los que se busca un efecto inmediato o muy proximo. Por lo general estas especies tienen un costo de adquisicion menor</t>
+  </si>
+  <si>
+    <t>Opuntia engelmannii y pheacantha</t>
+  </si>
+  <si>
+    <t>Ocotillo o Albarda</t>
+  </si>
+  <si>
+    <t>Fouquieria splendens</t>
+  </si>
+  <si>
+    <t>Fouquieriaceae</t>
+  </si>
+  <si>
+    <t>Yucca filifera</t>
+  </si>
+  <si>
+    <t>150+ años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150+ años </t>
+  </si>
+  <si>
+    <t>Echinocereus stramineus</t>
+  </si>
+  <si>
+    <t>Dasylirion texanum</t>
+  </si>
+  <si>
+    <t>Cordia boisseri</t>
+  </si>
+  <si>
+    <t>Boraginaceae</t>
+  </si>
+  <si>
+    <t>Lacustre o Ripario</t>
+  </si>
+  <si>
+    <t>Valle y Desierto</t>
+  </si>
+  <si>
+    <t>Acacia rigidula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehretia anacua </t>
+  </si>
+  <si>
+    <t>Ebenopsis ebano</t>
+  </si>
+  <si>
+    <t>Drenado Rapido a Drenado Lento</t>
+  </si>
+  <si>
+    <t>Quercus graciliformis</t>
+  </si>
+  <si>
+    <t>Quercus fusiformis</t>
+  </si>
+  <si>
+    <t>Quercus canbyi</t>
+  </si>
+  <si>
+    <t>Quercus laceyi</t>
+  </si>
+  <si>
+    <t>Ulmus crassifolia</t>
+  </si>
+  <si>
+    <t>Ulmaceae</t>
+  </si>
+  <si>
+    <t>Celtis laevigata</t>
+  </si>
+  <si>
+    <t>Juglans mollis</t>
+  </si>
+  <si>
+    <t>Juglandaceae</t>
+  </si>
+  <si>
+    <t>Valle o Montaña o Lacustre ripario</t>
+  </si>
+  <si>
+    <t>Carya illinoinensis</t>
+  </si>
+  <si>
+    <t>Sabal mexicana</t>
+  </si>
+  <si>
+    <t>Pinus pseudostrobus</t>
+  </si>
+  <si>
+    <t>Pinaceae</t>
+  </si>
+  <si>
+    <t>Pino teocote o colorado</t>
+  </si>
+  <si>
+    <t>Pinus teocote</t>
+  </si>
+  <si>
+    <t>Salix nigra</t>
+  </si>
+  <si>
+    <t>Valle y Lacuestre o ripario</t>
+  </si>
+  <si>
+    <t>30-80 años</t>
+  </si>
+  <si>
+    <t>Sargentia greggi</t>
+  </si>
+  <si>
+    <t>Rutaceae</t>
+  </si>
+  <si>
+    <t>Drenaje Medio</t>
+  </si>
+  <si>
+    <t>Diospyros texana</t>
+  </si>
+  <si>
+    <t>Ebenaceae</t>
+  </si>
+  <si>
+    <t>Drenaje Rapido a Drenaje Lento</t>
+  </si>
+  <si>
+    <t>Shopora secundiflora</t>
+  </si>
+  <si>
+    <t>Drenaje Rapido</t>
+  </si>
+  <si>
+    <t>Sideroxylon celastrinum</t>
+  </si>
+  <si>
+    <t>Sapotaceae</t>
+  </si>
+  <si>
+    <t>Cornus florida</t>
+  </si>
+  <si>
+    <t>Cornaceae</t>
+  </si>
+  <si>
+    <t>Cercis canadensis</t>
+  </si>
+  <si>
+    <t>Caesa</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2308,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2157,6 +2316,17 @@
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -2231,6 +2401,48 @@
       <c r="B2" t="s">
         <v>108</v>
       </c>
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2239,6 +2451,48 @@
       <c r="B3" t="s">
         <v>109</v>
       </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2247,6 +2501,48 @@
       <c r="B4" t="s">
         <v>110</v>
       </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2255,6 +2551,48 @@
       <c r="B5" t="s">
         <v>111</v>
       </c>
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2263,6 +2601,48 @@
       <c r="B6" t="s">
         <v>112</v>
       </c>
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2271,6 +2651,48 @@
       <c r="B7" t="s">
         <v>113</v>
       </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>7.5</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2279,6 +2701,48 @@
       <c r="B8" t="s">
         <v>114</v>
       </c>
+      <c r="C8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2287,10 +2751,52 @@
       <c r="B9" t="s">
         <v>115</v>
       </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>81</v>
@@ -2299,10 +2805,10 @@
         <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
         <v>97</v>
@@ -2310,7 +2816,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2319,10 +2825,10 @@
         <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -2330,7 +2836,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
         <v>83</v>
@@ -2339,10 +2845,10 @@
         <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -2350,7 +2856,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2362,13 +2868,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E60A5AA-C027-4451-B966-CFECF96F6C4B}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -2441,7 +2960,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2">
+        <v>4.5</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>5.5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -2449,10 +3010,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2460,7 +3060,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4">
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2468,7 +3110,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5">
+        <v>4.5</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2476,7 +3160,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2484,7 +3210,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7">
+        <v>5.5</v>
+      </c>
+      <c r="N7">
+        <v>4.5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2492,7 +3260,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" t="s">
+        <v>276</v>
+      </c>
+      <c r="K8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -2500,10 +3310,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>5.5</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -2511,10 +3360,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -2522,10 +3374,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -2533,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -2541,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -2549,10 +3401,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -2560,7 +3412,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -2568,7 +3420,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2576,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2584,7 +3436,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2595,7 +3447,7 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2608,7 +3460,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
@@ -2617,10 +3469,10 @@
         <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="J21" t="s">
         <v>97</v>
@@ -2628,7 +3480,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
         <v>82</v>
@@ -2637,10 +3489,10 @@
         <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
         <v>98</v>
@@ -2648,7 +3500,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
         <v>83</v>
@@ -2657,10 +3509,10 @@
         <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="J23" t="s">
         <v>99</v>
@@ -2668,7 +3520,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2765,10 +3617,10 @@
         <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
         <v>77</v>
@@ -2783,16 +3635,16 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M2">
         <v>1.5</v>
@@ -2804,7 +3656,7 @@
         <v>1.5</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -2815,10 +3667,10 @@
         <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
@@ -2833,16 +3685,16 @@
         <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
         <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M3">
         <v>2.5</v>
@@ -2854,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2865,10 +3717,10 @@
         <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
         <v>77</v>
@@ -2883,16 +3735,16 @@
         <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -2904,7 +3756,7 @@
         <v>3.5</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2915,10 +3767,10 @@
         <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
         <v>78</v>
@@ -2933,16 +3785,16 @@
         <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J5" t="s">
         <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -2954,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2965,10 +3817,10 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
         <v>78</v>
@@ -2983,16 +3835,16 @@
         <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M6">
         <v>0.4</v>
@@ -3001,7 +3853,7 @@
         <v>0.3</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3012,10 +3864,10 @@
         <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
@@ -3030,19 +3882,19 @@
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J7" t="s">
         <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3053,10 +3905,10 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
@@ -3071,16 +3923,16 @@
         <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J8" t="s">
         <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M8">
         <v>0.7</v>
@@ -3092,7 +3944,7 @@
         <v>0.6</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -3169,13 +4021,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A892B183-95B1-429D-A4A3-E6ADC63D4933}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -3263,10 +4116,10 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
         <v>77</v>
@@ -3281,16 +4134,16 @@
         <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
         <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M2">
         <v>0.7</v>
@@ -3302,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -3313,10 +4166,10 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
@@ -3331,16 +4184,16 @@
         <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
         <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M3">
         <v>1.5</v>
@@ -3352,7 +4205,7 @@
         <v>1.6</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -3363,10 +4216,10 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
         <v>77</v>
@@ -3381,16 +4234,16 @@
         <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J4" t="s">
         <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M4">
         <v>0.6</v>
@@ -3402,7 +4255,7 @@
         <v>0.8</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -3413,10 +4266,10 @@
         <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -3431,16 +4284,16 @@
         <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J5" t="s">
         <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M5">
         <v>1.2</v>
@@ -3452,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -3462,8 +4315,47 @@
       <c r="B6" t="s">
         <v>127</v>
       </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
+        <v>1.5</v>
+      </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3471,7 +4363,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1.8</v>
+      </c>
+      <c r="O7">
+        <v>2.5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3479,10 +4413,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8">
+        <v>4.5</v>
+      </c>
+      <c r="N8">
+        <v>3.5</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -3490,7 +4463,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9">
+        <v>0.4</v>
+      </c>
+      <c r="N9">
+        <v>0.8</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -3498,10 +4513,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10">
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <v>1.3</v>
+      </c>
+      <c r="O10">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -3579,7 +4633,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3591,13 +4645,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3605,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3616,10 +4670,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -3627,10 +4681,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3643,7 +4697,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3655,13 +4709,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3672,7 +4726,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3683,7 +4737,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3694,7 +4748,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3707,48 +4761,58 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3761,48 +4825,58 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3826,13 +4900,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3840,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3848,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3856,7 +4930,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3864,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3881,16 +4955,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3934,13 +5012,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3967,13 +5045,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC219292-3949-4AA0-84E7-7F151D5D8C5B}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
@@ -4063,16 +5139,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
@@ -4081,19 +5157,19 @@
         <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
         <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M2">
         <v>20</v>
@@ -4105,7 +5181,7 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -4116,13 +5192,13 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
         <v>81</v>
@@ -4131,19 +5207,19 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" t="s">
         <v>176</v>
-      </c>
-      <c r="J3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L3" t="s">
-        <v>178</v>
       </c>
       <c r="M3">
         <v>20</v>
@@ -4155,7 +5231,7 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -4163,16 +5239,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>83</v>
@@ -4181,19 +5257,19 @@
         <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" t="s">
         <v>176</v>
       </c>
-      <c r="J4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" t="s">
-        <v>178</v>
-      </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M4">
         <v>20</v>
@@ -4205,7 +5281,7 @@
         <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -4213,16 +5289,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -4231,19 +5307,19 @@
         <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M5">
         <v>20</v>
@@ -4255,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -4266,13 +5342,13 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>83</v>
@@ -4281,19 +5357,19 @@
         <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M6">
         <v>14</v>
@@ -4305,7 +5381,7 @@
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -4316,13 +5392,13 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
         <v>82</v>
@@ -4331,19 +5407,19 @@
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M7">
         <v>12</v>
@@ -4355,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -4365,13 +5441,94 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -4379,13 +5536,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -4394,19 +5554,19 @@
         <v>87</v>
       </c>
       <c r="H10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" t="s">
         <v>164</v>
-      </c>
-      <c r="I10" t="s">
-        <v>166</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M10">
         <v>12</v>
@@ -4418,7 +5578,7 @@
         <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -4426,7 +5586,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -4434,7 +5636,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -4442,12 +5686,54 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
         <v>81</v>
@@ -4456,10 +5742,10 @@
         <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
         <v>97</v>
@@ -4467,7 +5753,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -4476,10 +5762,10 @@
         <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
         <v>98</v>
@@ -4487,7 +5773,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -4496,10 +5782,10 @@
         <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
         <v>99</v>
@@ -4507,7 +5793,7 @@
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Guia de arboles y otras plantas nativas de Mty.xlsx
+++ b/Guia de arboles y otras plantas nativas de Mty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/carlos_martinezhrn_uanl_edu_mx/Documents/Documents/Github Projects/Guia-de-Arboles-y-Plantas-Nativas-de-Monterrey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="855" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA1BBFD-8AD6-407B-83F6-B3ACDA6CEA6F}"/>
+  <xr:revisionPtr revIDLastSave="1174" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7885D84E-ECB0-448B-B4DE-7D145EF6F6C8}"/>
   <bookViews>
-    <workbookView xWindow="9972" yWindow="36" windowWidth="13080" windowHeight="5148" firstSheet="8" activeTab="10" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
+    <workbookView xWindow="9264" yWindow="72" windowWidth="13704" windowHeight="9168" firstSheet="11" activeTab="11" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario de Floracion" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="353">
   <si>
     <t>Nombre Comun</t>
   </si>
@@ -692,9 +692,6 @@
     <t>Valle o Desierto</t>
   </si>
   <si>
-    <t>Codigo RGB</t>
-  </si>
-  <si>
     <t>Echinocactus y Ferocactus</t>
   </si>
   <si>
@@ -896,14 +893,310 @@
     <t>Cercis canadensis</t>
   </si>
   <si>
-    <t>Caesa</t>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Todas las zonas del area metropolitana cuya topografia aes plana o de bajo relieve. Para utilidad de esta guia, seconsideran valles la totalidad de los municipios de Guadalupe, San Nicolas de los Garza, Benito Juarez y parte de Escobedo. Tambien se incluye el municipio de Monterrey, con excepcion de las faldas del cerro de la silla, la zona del Huajuco y la cara norte del cerro de las Mitras. En San Pedro se considero valle la zona baja del municipio, incluyendo Valle Oriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El area de montaña se encuentra principalmente en los municipios de San Pedro Garza Garcia, Monterrey y Santiago. En el primero se consideran las faldas y las partes altas de la Sierra Madre Oriental, y los cerros de El Mirador y La Corona. Varias areas residenciales se encuentran en las cercanias del Parque Ecologico Chipinque, que es habitat de muchas de las especies listadas en esta guia. En Monterrey, el area de montaña se encuentra en las faldas del cerro de La Silla en la colonia Contry La Silla y en el Cañon del Huajuco. En el Municipio de Santiago se considera la cabecera municipal y sus alrededores, asi como la falda noeste de La Silla </t>
+  </si>
+  <si>
+    <t>La mayoria del municipio de Santa Catarina en su parte baja, asi como el extremo poniente del municipio de Escobedo y parte de Apodaca. En esta el tipo de suelo y el asoleamiento cambian, por lo que se recomiendan las especies mas resistentes a sequias, que pueden desarrollarse en suelos pobres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se recomienda el uso de las esoecies identificadas con este habitat en las orillas de lagos, naturales o artificiales, presas, arroyos y rios. En ocaciones se considera dentro de las especificaciones de este habitat a los principales escurrimientos pluviales naturales de la ciudad donde aun existe flujo intenso de agua durante las lluvias </t>
+  </si>
+  <si>
+    <t>Cualquier tipo de suelo que permita que el agua, ya sea de riego o pluvial, sea rapidamente absorbida y no genera saturacion en el area de la raiz. Generalmente estos suelos son pedregosos o archillosos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suelos con capacidad de saturarse por un tiempo. Permiten buena permeabilidad hacia la raiz del arbol sin llegar a saturarse facilmente. La mayoria de los arboles y plantas incluidas en esta guia se adapta con facilidad a este tipo de suelo </t>
+  </si>
+  <si>
+    <t>Suelos saturados, cenagosos, en los que el agua pluvial o de riego tiene una absorcion lenta, provocando que la raiz del arbol se mantenga por mas tiempo humeda. Usualmente estos suelos contienen mucha materia organica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caesalpinia mexicana </t>
+  </si>
+  <si>
+    <t>Acacia farnesiana</t>
+  </si>
+  <si>
+    <t>Sapindus saponaria</t>
+  </si>
+  <si>
+    <t>Arbutus texana</t>
+  </si>
+  <si>
+    <t>Ericaceae</t>
+  </si>
+  <si>
+    <t>Prosopis glandulosa</t>
+  </si>
+  <si>
+    <t>Chilopsis linearis</t>
+  </si>
+  <si>
+    <t>Bignoniaceae</t>
+  </si>
+  <si>
+    <t>Ungnadia speciosa</t>
+  </si>
+  <si>
+    <t>Parkinsonia texana</t>
+  </si>
+  <si>
+    <t>Codigo HEX</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>102, 166, 87</t>
+  </si>
+  <si>
+    <t>Pinus cembrpides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>Retama</t>
+  </si>
+  <si>
+    <t>Parkinsonia aculeata</t>
+  </si>
+  <si>
+    <t>Drenado Medio o Drenado Lento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tronadora </t>
+  </si>
+  <si>
+    <t>Tecoma stans</t>
+  </si>
+  <si>
+    <t>151, 79, 47</t>
+  </si>
+  <si>
+    <t>#974F2F</t>
+  </si>
+  <si>
+    <t>#d99986</t>
+  </si>
+  <si>
+    <t>#9cd199</t>
+  </si>
+  <si>
+    <t>#66a657</t>
+  </si>
+  <si>
+    <t>217, 153, 134</t>
+  </si>
+  <si>
+    <t>156, 209, 153</t>
+  </si>
+  <si>
+    <t>100, 148, 107</t>
+  </si>
+  <si>
+    <t>139, 155, 69</t>
+  </si>
+  <si>
+    <t>215, 193, 125</t>
+  </si>
+  <si>
+    <t>47, 109, 56</t>
+  </si>
+  <si>
+    <t>110, 192, 99</t>
+  </si>
+  <si>
+    <t>158, 115, 72</t>
+  </si>
+  <si>
+    <t>114, 60, 53</t>
+  </si>
+  <si>
+    <t>203, 196, 116</t>
+  </si>
+  <si>
+    <t>68, 109, 55</t>
+  </si>
+  <si>
+    <t>151, 166, 64</t>
+  </si>
+  <si>
+    <t>64, 70, 44</t>
+  </si>
+  <si>
+    <t>188, 183, 98</t>
+  </si>
+  <si>
+    <t>126, 147, 77</t>
+  </si>
+  <si>
+    <t>165, 161, 129</t>
+  </si>
+  <si>
+    <t>205, 172, 132</t>
+  </si>
+  <si>
+    <t>129, 95, 62</t>
+  </si>
+  <si>
+    <t>#64946B</t>
+  </si>
+  <si>
+    <t>#8B9B45</t>
+  </si>
+  <si>
+    <t>#D7C17D</t>
+  </si>
+  <si>
+    <t>#CBC474</t>
+  </si>
+  <si>
+    <t>#2F6D38</t>
+  </si>
+  <si>
+    <t>E l sotol aporta un gran complemento al jardín árido, ya que posee un aspecto peculiar que se debate entre la rigidez de un agave y la soltura de un pasto. Sus pencas u hojas suelen ser semirrígidas, parten todas del mismo centro y trazan, en ocasiones, una media esfera casi perfecta. Esta forma se complementa con un espectacular quiote está cubierto totalmente de la florescencia. El sotol es muy adaptable a diversas condiciones climáticas y de suelos. Se encuentra en sitios de muy alta salinidad, siendo una especie dominante y presentando un perfil muy rígido. También puede soportar ambientes sutilmente más húmedos, en los que sus hojas llegan a vencerse para adquirir un aspecto más cercano a un pasto silvestre. El sotol, como casi todas las especies desérticas, presenta espinas a lo largo de sus hojas; éstas son muy continuas y pequeñas, asemejándose a una hoja serrada.</t>
+  </si>
+  <si>
+    <t>Una época de floración breve, entre marzo o abril, no es motivo para dejar de apreciar esta especie de cactus  que en plena florescencia da color al suelo árido. La pitaya es un ideal complemento del jardín desértico. Si
+bien su altura no rebasa los cuarenta centímetros, sus numerosas espinas de gran tamaño y su copiosa ramificación
+la hacen atractiva dentro de este tipo de jardines. Al conjunto principal de tallos en forma cilíndrica se le integran
+nuevos que crecen desde la parte baja, inicialmente en una
+dirección horizontal para luego enderezarse. Hay pitayas
+que pueden llegar a tener hasta cien tallos, lo que permite
+que su impacto en el paisaje sea mayor.
+Sus espinas llegan a medir tres o cuatro centímetros y suelen aportar un elemento estético al cactus, ya que con
+cierta iluminación del sol se tornan amarillas o doradas y transforman la apreciación cromática
+de la planta. El efecto se complementa con el color violeta o
+morado intenso de las flores, que
+se abren de día alcanzando los
+diez centímetros de diámetro</t>
+  </si>
+  <si>
+    <t>La identidad florística de México está representada por el ahuehuete como árbol, el nopal como cactus y, sin duda, la yuca como palma. Su presencia en el paisaje del desierto mexicano es majestuosa. La yuca posee un potencial paisajístico único, al desempeñar dos funciones: la de especie de carácter desértico y la de escultura natural. Su forma rígida y rústica, y sus cabezales siempre verdes y aleatorios en su crecimiento y dirección provocan que esta especie se convierta en un monumento en el contexto urbano. Existen varios proyectos de paisaje en los que se ha utilizado la yuca para reafirmar espacios, perspectivas o simplemente para marcar un punto focal. Parece por sí solo un elemento arquitectónico. Esta especie, al ser nativa del hábitat desértico, casi no requiere mantenimiento y, a pesar de que su crecimiento es lento, una vez desarrollada suele ser espectacular. Se puede plantar en estacionamientos, donde se deberá aumentar su densidad para proyectar una sombra útil. También se puede utilizar en jardines residenciales, plazas comerciales, camellones y hasta banquetas, donde será importante considerar el espacio para su follaje.</t>
+  </si>
+  <si>
+    <t>Otra especie de porte escultórico, el ocotillo, destaca por el profuso follaje adosado a sus ramas y por la exuberante floración roja que nace en el ápice de la planta. El ocotillo es un sobreviviente. Su presencia y majestuosidad se pueden apreciar tanto en desiertos fértiles como en sitios inhóspitos. Usualmente carente de hojas, basta una ligera lluvia o un riego menor para que sus ramas espinosas se cubran de un denso follaje verde brillante. Durante la primavera y parte del verano su flor roja resalta en los paisajes. A pesar de su belleza singular, la albarda tiene un uso restringido en el contexto urbano, debido principalmente a la presencia de sus espinas rígidas de gran tamaño que representan una amenaza para peatones. Considerando esto, se recomienda su uso como elemento visual y escultórico dentro de un área sin tránsito peatonal, pero donde se pueda apreciar su belleza. El ocotillo atrae gran cantidad de aves que todo el año utilizan sus ramas como sitios de descanso u observación. En tiempos de floración este efecto es más común</t>
+  </si>
+  <si>
+    <t>El ícono florístico más representativo de México, el nopal, omnipresente en la alimentación de los mexicanos, ahora se recomienda también como una especie con gran potencial estético. El nopal presenta una oportunidad magnífica para un jardín en el cual pueda realizar funciones estéticas y alimenticias. Por un lado, la abundancia y exuberancia de su flor amarilla, en ocasiones naranja, provoca un auténtico espectáculo primaveral; por otro, el fruto conocido como tuna y la misma penca son manjares de nuestra gastronomía. El intenso color que el nopal de monte posee durante la época de floración, entre abril y julio, permite que esta especie se convierta en el punto focal de un jardín residencial o, si se planta en conjunto, se puede utilizar en áreas más extendidas multiplicando el efecto cromático. Durante el resto del año el nopal se mantiene vigoroso y verde, atrayendo fauna en búsqueda de alimento o de cobijo. La aportación estética del nopal en un diseño de paisaje va más allá de la forma y el color, ya es símbolo de la mexicanidad. Del nopal es posible comer su fruto y sus pencas, es decir, casi la totalidad de la planta. Cuando se busca regenerar terrenos en el olvido, se pueden desarrollar cultivos urbanos de nopal permitiendo a la comunidad ser partícipe de la cosecha. El nopal de monte es resistente a las sequías y al frío intenso, incluso a las nevadas, por lo que se sugiere su uso en jardines o áreas verdes de muy bajo mantenimiento</t>
+  </si>
+  <si>
+    <t>Símbolo del desierto y de nuestra identidad natural, el maguey posee un porte que denota fuerza y resistencia, además de aportar belleza al paisaje. El atractivo de esta especie radica en sus implacables pencas de color azul verdoso, las cuales sólo llegan a doblegarse si han alcanzado una gran altura, en cuyo caso el maguey ya se habrá convertido en un patrimonio del lugar donde se encuentre. Al igual que todas las especies desérticas, el maguey sobrevive a las sequías y no requiere un mantenimiento mayor, sólo es necesario dotarlo del espacio necesario para desarrollarse en plenitud. Un maguey solitario puede representar un remate visual en jardines residenciales y, en algunos casos, comerciales. Se recomienda su uso masivo en camellones, donde es necesario evitar el cruce peatonal, y en jardineras bien delimitadas dentro de plazas o espacios públicos.</t>
+  </si>
+  <si>
+    <t>Una de las especies más comunes en el paisaje desértico de Nuevo León, la lechuguilla soporta el más extremo clima, ofreciendo una garantía de sobrevivencia única. Sus pencas de color amarillento y verde se distribuyen radialmente desde su centro, quedando las más viejas en el exterior y las jóvenes en el interior. Como agave, su resistencia a la sequía es alta; logra sobrevivir en condiciones de escasez. La lechuguilla es rígida y, debido a que sus pencas están aserradas, presenta un riesgo para el peatón, por lo que se recomienda plantar en espacios bien definidos. Su uso en jardines desérticos puede aportar follaje bajo, lo que genera una densidad que se aprecia exuberante. Esta especie se encuentra en el repertorio vegetal ideal para las azoteas verdes, espacios urbanos que usualmente son afectados por condiciones similares al desierto, tales como sol permanente, fuertes vientos y pérdida de suelo.</t>
+  </si>
+  <si>
+    <t>L a gobernadora, omnipresente en el desierto chihuahuense en cuyo extremo oriente se encuentra Monterrey, domina el paisaje y lo perfuma con el intenso aroma de sus flores. La gobernadora es el arbusto del desierto. Por lo general rodeado de cactáceas, agaves, yucas y ocotillos, esta especie se destaca por su forma densamente ramificada desde el piso y sus hojas de tonos verde oscuros. Durante su floración, de marzo a septiembre, se tiñe de un tono amarillento que le otorga un nuevo valor paisajístico. Se recomienda su uso en jardines como complemento de un ambiente desértico, o mezclada con especies no áridas, ya que su apariencia de arbusto le permite crear relaciones estéticas con otros setos. La gobernadora es altamente resistente a la sequía y al frío, por lo que su mantenimiento es mínimo, lo que impulsa su uso en jardines sustentables donde resulta esencial el ahorro de energía y recursos hídricos. Antes de desmontar un área, en la que se encuentre la gobernadora, se recomienda conservarla en su ubicación original para evitar trasplantes.</t>
+  </si>
+  <si>
+    <t>Tal como otras especies desérticas, la biznaga es característica del paisaje árido. Muestra cierta agresividad estética, debido a sus numerosas espinas que a la vez le otorgan belleza única. De forma esférica cuando joven, que se convierte en una especie de cilindro al madurar, esta especie posee evidentes muestras de la sabiduría natural del desierto. Las nervaduras o surcos que recorren su circunferencia captan y dirigen la escasa agua que obtienen a sus raíces evitando pérdidas, hasta finalmente almacenarla en el mismo cuerpo de la biznaga, dándole esa forma tan atractiva. Su presencia en un jardín árido es esencial, ya que contrasta con el efecto provocado por agaves como lechuguillas y magueyes. Su floración en la cresta de la planta llama mucho la atención.</t>
+  </si>
+  <si>
+    <t>Al igual que la lantana, la veintiunilla o asclepia es una favorita de las mariposas, especialmente las monarcas cuya presencia en el otoño es más evidente alrededor de esta planta. A la distancia, la flor de la asclepia es similar en color y
+tamaño a la de la lantana; sin embargo, son especies muy
+distintas, las hojas de la veintiunilla son alargadas y más
+ordenadas o regulares, lo que redunda en una apariencia
+más agradable durante el invierno.
+Su uso en un jardín pequeño puede ser de forma individual
+o combinado con rastreras o arbustos con flor, creando
+espacios multicolores muy llamativos que sirven para resaltar algún elemento, o simplemente como remate visual
+desde alguna habitación. La veintiunilla se debe considerar
+como un arbusto bajo, más que como una rastrera, por
+lo que su uso en grupos como setos de división es muy
+aprovechable.</t>
+  </si>
+  <si>
+    <t>El complemento de cualquier proyecto de paisaje o área verde en general es el pasto. La cubierta que éste genera permite asumir el espacio como un sitio agradable y acogedor. Existe una gran variedad de pastos nativos en nuestra región, crecen sin necesidad de cuidados y poca agua. De hecho, varios de ellos sobreviven en condiciones de sequía intensa, requiriendo no más de veinte milímetros de lluvia al año –Monterrey recibe entre 300 y 600 milímetros. Estos pastos ya se encuentran en el paisaje urbano, principalmente en terrenos o áreas que han sido intervenidas por el hombre, ya sea por desmonte o por movimientos de tierra. La mayoría de los pastos nativos crecen hasta los sesenta centímetros, por lo que en su estado natural son atractivos y pueden mantenerse como tal en proyectos donde su función sea más visual que de uso intensivo. Su floración es mayor si no se intervienen, lo que crea un efecto paisajístico muy atractivo cuando el viento mueve los ligeros tallos que soportan las flores. Cuando el uso del pasto va a ser como superficie de juego o peatonal, se puede podar, logrando un efecto similar al de un pasto tradicional. El máximo requisito de estas especies es obtener luz directa del sol durante todo el día, por lo que no se recomiendan para zonas sombreadas.</t>
+  </si>
+  <si>
+    <t>E s una hierba silvestre poseedora de una flor color azul profundo que, si se planta masivamente, durante la primavera se convierte en una cama cromática del paisaje urbano. El lupino es muy utilizado en Texas a la orilla de las autopistas y ofrece a los conductores otra perspectiva de lo
+que puede ser un viaje en carretera. Durante la primavera
+estos caminos se tiñen de azul intenso a lo largo de cientos de kilómetros y, durante el resto del año, los suelos
+se observan verdes y siempre cubiertos de vegetación.
+En Nuevo León se podría lograr un efecto similar si utilizáramos más ésta y otras especies de hierbas o flores
+silvestres. A simple vista el lupino es una planta siempre
+verde cuya altura no rebasa los cincuenta centímetros.
+Puede cubrir rápidamente el suelo dotándolo de vida en
+situaciones de clima adverso, ya que los requerimientos de
+agua del lupino son mínimos.
+Se recomienda en áreas de sol intenso y si
+se planta en un suelo por primera vez
+es benéfico porque inyecta nitrógeno
+a la tierra, permitiendo un mejor
+enraizamiento del lupino.</t>
+  </si>
+  <si>
+    <t>L a belleza de las mariposas despierta una gran admiración y, para deleitarse con la presencia de estos insectos, es necesario atraerlos y nada mejor que la lantana para lograrlo. Esta especie, identificada como Lantana urticoides u horrida
+por Hayek es un auténtico manjar para diversas especies de
+insectos y aves, a los que atrae nueve meses del año. El color
+de sus flores varía en tonos cálidos. La lantana es una subarbustiva que en ocasiones crece hasta el tamaño de arbusto.
+La lantana tiene un alto potencial paisajístico. Su resistencia
+a las altas temperaturas y el relativo bajo mantenimiento
+que requiere –aún cuando aprecia mucho un riego constante– la hacen ideal para ambientar grandes extensiones de
+áreas verdes, creando alfombras cromáticas que a su vez
+están siempre llenas de vida. También es posible establecerla en detalles más puntuales, aunque en lo individual es
+muy irregular y poco atractiva en invierno.
+A pesar de ser una especie gustosa del sol intenso, se le
+puede encontrar en ambientes boscosos y sombreados,
+aunque su floración es menos intensa.</t>
+  </si>
+  <si>
+    <t>Como muchas de las especies adaptadas al matorral submontano, la belleza, frangancia y detalle del guajillo se aprecian mejor en forma de arbusto Posee características estéticas que le confieren un potencial paisajístico amplio; en ocasiones puede integrarse a un
+jardín de condiciones áridas y, en otras, sus hojas similares
+al helecho logran que parezca una especie más relacionada con ambientes húmedos.
+El atractivo mayor del guajillo es su profusa floración,
+que provee alimento para un gran número de mariposas
+e insectos. Cualquier acercamiento a la copa de este gran
+arbusto permite escuchar y observar una vida intensa.
+Como especie paisajística, el guajillo puede utilizarse
+en jardines residenciales de escala grande, donde pueda
+aprovecharse su copa baja o, también, como especie regeneradora de terrenos en abandono, pues impulsa el crecimiento de otras especies mayores.</t>
+  </si>
+  <si>
+    <t>E n ocasiones descrita como especie tropical, la dodónea se presenta en Nuevo León como un arbusto de gran atractivo paisajístico capaz de resistir las condiciones climáticas de la región. La característica principal de esta especie es su inusual resistencia a la sequía. Esto se debe a la capa resinosa de sus
+hojas que evita la pérdida de agua. Debido a ello la dodónea
+es un excelente arbusto con gran potencial en el paisaje
+urbano. Su follaje es siempre verde y el tono de sus hojas
+se aprecia joven, brillante.
+Por la forma de su copa, irregular y extendida a lo ancho,
+y por el hecho de presentar varios troncos, esta especie
+puede sobresalir de manera individual, aunque cuando se
+planta en grupos el efecto de barrera o de pantalla se hace
+más evidente. Su uso es recomendado en espacios públicos
+donde se requiera ambientar las áreas entre árboles, creando una atmósfera más boscosa, más densa.
+Su crecimiento es ágil y su resistencia a la falta de mantenimiento es alta, por lo que su uso como regeneradora de
+espacios verdes o fijadora de suelos es aconsejable.</t>
+  </si>
+  <si>
+    <t>E l arbusto por excelencia de Nuevo León, el cenizo, es conocido en Texas como el “arbusto barómetro” debido a que su sorprendente floración depende de la humedad en el ambiente y de la precipitación pluvial Un magnífico espectáculo es ver cubrirse las faldas de
+las montañas o cerros que rodean Monterrey de una sutil
+pantalla violeta, producida por la intensa floración del
+cenizo. Su abundancia en el matorral permite que éste
+se tiña de color cada vez que se presentan o están por
+suceder lluvias.
+Su sensibilidad a la lluvia y su capacidad para sobrellevar
+la ausencia de ésta permiten que el cenizo sea utilizado
+como especie de bajo mantenimiento, a la vez que de
+él se obtienen beneficios estéticos en un jardín de alto
+cuidado.
+El cenizo es ideal para barreras entre propiedades, o para
+isletas de estacionamientos. Su uso se recomienda en
+grupos, para exagerar su efecto. Su forma es irregular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,8 +1204,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +1272,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66A657"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CD199"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF974F2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD99986"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64946B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B9B45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBC474"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7C17D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F6D38"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -986,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1000,9 +1353,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,10 +1389,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2F6D38"/>
+      <color rgb="FFCBC474"/>
+      <color rgb="FFD7C17D"/>
+      <color rgb="FF8B9B45"/>
+      <color rgb="FF64946B"/>
+      <color rgb="FF974F2F"/>
+      <color rgb="FFD99986"/>
+      <color rgb="FF9CD199"/>
+      <color rgb="FF66A657"/>
       <color rgb="FF7F4949"/>
-      <color rgb="FFC96565"/>
-      <color rgb="FFB77F7B"/>
-      <color rgb="FFD5C887"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1379,7 +1748,7 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,54 +1769,54 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11" t="s">
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="11"/>
+      <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -2313,9 +2682,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -2402,10 +2771,10 @@
         <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
         <v>158</v>
@@ -2452,7 +2821,7 @@
         <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
         <v>207</v>
@@ -2473,7 +2842,7 @@
         <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K3" t="s">
         <v>196</v>
@@ -2491,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2502,7 +2871,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
         <v>182</v>
@@ -2541,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2552,7 +2921,7 @@
         <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>182</v>
@@ -2591,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2602,7 +2971,7 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
         <v>182</v>
@@ -2641,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2652,7 +3021,7 @@
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
         <v>182</v>
@@ -2691,7 +3060,7 @@
         <v>9</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2702,10 +3071,10 @@
         <v>114</v>
       </c>
       <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
         <v>254</v>
-      </c>
-      <c r="D8" t="s">
-        <v>255</v>
       </c>
       <c r="E8" t="s">
         <v>158</v>
@@ -2741,7 +3110,7 @@
         <v>8</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -2752,10 +3121,10 @@
         <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
         <v>160</v>
@@ -2856,7 +3225,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2868,20 +3237,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E60A5AA-C027-4451-B966-CFECF96F6C4B}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
@@ -2963,10 +3334,10 @@
         <v>138</v>
       </c>
       <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
         <v>242</v>
-      </c>
-      <c r="D2" t="s">
-        <v>243</v>
       </c>
       <c r="E2" t="s">
         <v>158</v>
@@ -2981,7 +3352,7 @@
         <v>163</v>
       </c>
       <c r="I2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J2" t="s">
         <v>98</v>
@@ -3013,7 +3384,7 @@
         <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
         <v>207</v>
@@ -3031,7 +3402,7 @@
         <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J3" t="s">
         <v>97</v>
@@ -3063,10 +3434,10 @@
         <v>140</v>
       </c>
       <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="s">
         <v>269</v>
-      </c>
-      <c r="D4" t="s">
-        <v>270</v>
       </c>
       <c r="E4" t="s">
         <v>160</v>
@@ -3084,7 +3455,7 @@
         <v>189</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K4" t="s">
         <v>196</v>
@@ -3113,10 +3484,10 @@
         <v>141</v>
       </c>
       <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s">
         <v>272</v>
-      </c>
-      <c r="D5" t="s">
-        <v>273</v>
       </c>
       <c r="E5" t="s">
         <v>158</v>
@@ -3134,7 +3505,7 @@
         <v>189</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K5" t="s">
         <v>175</v>
@@ -3163,7 +3534,7 @@
         <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
         <v>207</v>
@@ -3184,7 +3555,7 @@
         <v>189</v>
       </c>
       <c r="J6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K6" t="s">
         <v>176</v>
@@ -3213,10 +3584,10 @@
         <v>143</v>
       </c>
       <c r="C7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" t="s">
         <v>277</v>
-      </c>
-      <c r="D7" t="s">
-        <v>278</v>
       </c>
       <c r="E7" t="s">
         <v>160</v>
@@ -3234,7 +3605,7 @@
         <v>189</v>
       </c>
       <c r="J7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K7" t="s">
         <v>175</v>
@@ -3263,10 +3634,10 @@
         <v>144</v>
       </c>
       <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
         <v>279</v>
-      </c>
-      <c r="D8" t="s">
-        <v>280</v>
       </c>
       <c r="E8" t="s">
         <v>160</v>
@@ -3284,7 +3655,7 @@
         <v>189</v>
       </c>
       <c r="J8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K8" t="s">
         <v>175</v>
@@ -3313,7 +3684,7 @@
         <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
         <v>207</v>
@@ -3334,7 +3705,7 @@
         <v>189</v>
       </c>
       <c r="J9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K9" t="s">
         <v>181</v>
@@ -3363,10 +3734,46 @@
         <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
         <v>207</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10">
+        <v>5.5</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -3376,8 +3783,47 @@
       <c r="B11" t="s">
         <v>147</v>
       </c>
+      <c r="C11" t="s">
+        <v>290</v>
+      </c>
       <c r="D11" t="s">
         <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3387,6 +3833,48 @@
       <c r="B12" t="s">
         <v>148</v>
       </c>
+      <c r="C12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>6.5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -3395,6 +3883,48 @@
       <c r="B13" t="s">
         <v>149</v>
       </c>
+      <c r="C13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -3403,8 +3933,47 @@
       <c r="B14" t="s">
         <v>150</v>
       </c>
+      <c r="C14" t="s">
+        <v>294</v>
+      </c>
       <c r="D14" t="s">
         <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -3414,6 +3983,48 @@
       <c r="B15" t="s">
         <v>151</v>
       </c>
+      <c r="C15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -3422,43 +4033,250 @@
       <c r="B16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16">
+        <v>4.5</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" t="s">
+        <v>244</v>
+      </c>
+      <c r="J17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17">
+        <v>5.5</v>
+      </c>
+      <c r="N17">
+        <v>4.5</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>4.5</v>
+      </c>
+      <c r="O18">
+        <v>4.5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>304</v>
+      </c>
+      <c r="C19" t="s">
+        <v>305</v>
       </c>
       <c r="D19" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="C20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20">
+        <v>4.5</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>158</v>
       </c>
@@ -3478,7 +4296,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>160</v>
       </c>
@@ -3498,7 +4316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>159</v>
       </c>
@@ -3518,9 +4336,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3532,13 +4350,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A920792F-CF3F-457F-833D-61DB879F4FB7}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
@@ -3658,6 +4485,9 @@
       <c r="P2" t="s">
         <v>197</v>
       </c>
+      <c r="Q2" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3708,6 +4538,9 @@
       <c r="P3" t="s">
         <v>197</v>
       </c>
+      <c r="Q3" s="21" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -3758,6 +4591,9 @@
       <c r="P4" t="s">
         <v>197</v>
       </c>
+      <c r="Q4" s="21" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3808,6 +4644,9 @@
       <c r="P5" t="s">
         <v>205</v>
       </c>
+      <c r="Q5" s="21" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3852,8 +4691,14 @@
       <c r="N6">
         <v>0.3</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
       <c r="P6" t="s">
         <v>205</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3893,8 +4738,20 @@
       <c r="L7" t="s">
         <v>181</v>
       </c>
+      <c r="M7">
+        <v>0.3</v>
+      </c>
+      <c r="N7">
+        <v>0.6</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
       <c r="P7" t="s">
         <v>205</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3945,6 +4802,9 @@
       </c>
       <c r="P8" t="s">
         <v>197</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -4021,7 +4881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A892B183-95B1-429D-A4A3-E6ADC63D4933}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4116,10 +4978,10 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
         <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
       </c>
       <c r="E2" t="s">
         <v>77</v>
@@ -4134,7 +4996,7 @@
         <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J2" t="s">
         <v>97</v>
@@ -4156,6 +5018,9 @@
       </c>
       <c r="P2" t="s">
         <v>178</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -4166,10 +5031,10 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
         <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
@@ -4184,7 +5049,7 @@
         <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
         <v>97</v>
@@ -4206,6 +5071,9 @@
       </c>
       <c r="P3" t="s">
         <v>197</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -4216,10 +5084,10 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
         <v>220</v>
-      </c>
-      <c r="D4" t="s">
-        <v>221</v>
       </c>
       <c r="E4" t="s">
         <v>77</v>
@@ -4234,7 +5102,7 @@
         <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" t="s">
         <v>97</v>
@@ -4256,6 +5124,9 @@
       </c>
       <c r="P4" t="s">
         <v>197</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -4266,10 +5137,10 @@
         <v>126</v>
       </c>
       <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
         <v>222</v>
-      </c>
-      <c r="D5" t="s">
-        <v>223</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -4284,7 +5155,7 @@
         <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J5" t="s">
         <v>97</v>
@@ -4306,6 +5177,9 @@
       </c>
       <c r="P5" t="s">
         <v>197</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -4316,10 +5190,10 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
         <v>77</v>
@@ -4334,7 +5208,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J6" t="s">
         <v>97</v>
@@ -4356,6 +5230,9 @@
       </c>
       <c r="P6" t="s">
         <v>197</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -4363,13 +5240,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
         <v>234</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>235</v>
-      </c>
-      <c r="D7" t="s">
-        <v>236</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
@@ -4384,7 +5261,7 @@
         <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J7" t="s">
         <v>97</v>
@@ -4406,6 +5283,9 @@
       </c>
       <c r="P7" t="s">
         <v>197</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -4416,10 +5296,10 @@
         <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
@@ -4434,7 +5314,7 @@
         <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J8" t="s">
         <v>97</v>
@@ -4455,7 +5335,10 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -4466,10 +5349,10 @@
         <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
         <v>77</v>
@@ -4484,7 +5367,7 @@
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J9" t="s">
         <v>97</v>
@@ -4506,6 +5389,9 @@
       </c>
       <c r="P9" t="s">
         <v>197</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -4516,10 +5402,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
         <v>77</v>
@@ -4534,7 +5420,7 @@
         <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J10" t="s">
         <v>97</v>
@@ -4556,6 +5442,9 @@
       </c>
       <c r="P10" t="s">
         <v>197</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -4790,7 +5679,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -4801,7 +5690,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -4812,7 +5701,7 @@
         <v>161</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4854,7 +5743,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4865,7 +5754,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -4876,7 +5765,7 @@
         <v>163</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4886,19 +5775,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4D8FC3-1EA8-4629-86A7-28B322CE7D58}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -4909,36 +5799,53 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>167</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4951,13 +5858,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4971,28 +5879,37 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5002,10 +5919,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC43BC44-11EE-4A7A-97EC-4F990AD9F102}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5015,28 +5932,236 @@
         <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5051,7 +6176,7 @@
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -5142,10 +6267,10 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
         <v>159</v>
@@ -5181,7 +6306,7 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -5281,7 +6406,7 @@
         <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -5331,7 +6456,7 @@
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -5381,7 +6506,7 @@
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -5431,7 +6556,7 @@
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -5442,10 +6567,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
         <v>257</v>
-      </c>
-      <c r="D8" t="s">
-        <v>258</v>
       </c>
       <c r="E8" t="s">
         <v>159</v>
@@ -5460,7 +6585,7 @@
         <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K8" t="s">
         <v>175</v>
@@ -5478,7 +6603,7 @@
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -5489,10 +6614,10 @@
         <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
         <v>159</v>
@@ -5528,7 +6653,7 @@
         <v>14</v>
       </c>
       <c r="P9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -5539,10 +6664,10 @@
         <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
         <v>158</v>
@@ -5589,10 +6714,10 @@
         <v>136</v>
       </c>
       <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
         <v>262</v>
-      </c>
-      <c r="D11" t="s">
-        <v>263</v>
       </c>
       <c r="E11" t="s">
         <v>160</v>
@@ -5636,13 +6761,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
         <v>264</v>
       </c>
-      <c r="C12" t="s">
-        <v>265</v>
-      </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
         <v>160</v>
@@ -5689,7 +6814,7 @@
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
         <v>179</v>
@@ -5707,7 +6832,7 @@
         <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
         <v>99</v>
@@ -5728,7 +6853,7 @@
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">

--- a/Guia de arboles y otras plantas nativas de Mty.xlsx
+++ b/Guia de arboles y otras plantas nativas de Mty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/carlos_martinezhrn_uanl_edu_mx/Documents/Documents/Github Projects/Guia-de-Arboles-y-Plantas-Nativas-de-Monterrey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1174" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7885D84E-ECB0-448B-B4DE-7D145EF6F6C8}"/>
+  <xr:revisionPtr revIDLastSave="1465" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE96E0B2-4A8C-46DD-8180-4B5A50BA5358}"/>
   <bookViews>
-    <workbookView xWindow="9264" yWindow="72" windowWidth="13704" windowHeight="9168" firstSheet="11" activeTab="11" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario de Floracion" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="395">
   <si>
     <t>Nombre Comun</t>
   </si>
@@ -269,15 +269,6 @@
     <t>Breve Descripcion</t>
   </si>
   <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>Hojas</t>
-  </si>
-  <si>
-    <t>Frutos</t>
-  </si>
-  <si>
     <t>Riego</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
   </si>
   <si>
     <t>Familia</t>
-  </si>
-  <si>
-    <t>Paleta de color</t>
   </si>
   <si>
     <t>Anidasion</t>
@@ -1191,12 +1179,150 @@
 isletas de estacionamientos. Su uso se recomienda en
 grupos, para exagerar su efecto. Su forma es irregular</t>
   </si>
+  <si>
+    <t>Paleta de color 1(RGB)</t>
+  </si>
+  <si>
+    <t>Paleta de color 2(RGB)</t>
+  </si>
+  <si>
+    <t>Paleta de color 3(RGB)</t>
+  </si>
+  <si>
+    <t>Paleta de color 4(RGB)</t>
+  </si>
+  <si>
+    <t>#6EC063</t>
+  </si>
+  <si>
+    <t>#9E7348</t>
+  </si>
+  <si>
+    <t>#723C35</t>
+  </si>
+  <si>
+    <t>#446D37</t>
+  </si>
+  <si>
+    <t>#97A640</t>
+  </si>
+  <si>
+    <t>#40462C</t>
+  </si>
+  <si>
+    <t>#BCB762</t>
+  </si>
+  <si>
+    <t>89, 119, 50</t>
+  </si>
+  <si>
+    <t>#adab4a</t>
+  </si>
+  <si>
+    <t>173, 171, 74</t>
+  </si>
+  <si>
+    <t>#8a7363</t>
+  </si>
+  <si>
+    <t>138, 115, 99</t>
+  </si>
+  <si>
+    <t>226, 209, 151</t>
+  </si>
+  <si>
+    <t>#e2d197</t>
+  </si>
+  <si>
+    <t>#7E934D</t>
+  </si>
+  <si>
+    <t>#A5A181</t>
+  </si>
+  <si>
+    <t>#CDAC84</t>
+  </si>
+  <si>
+    <t>#815F3E</t>
+  </si>
+  <si>
+    <t>#597732</t>
+  </si>
+  <si>
+    <t>79, 55, 36</t>
+  </si>
+  <si>
+    <t>175, 174, 117</t>
+  </si>
+  <si>
+    <t>66, 104, 77</t>
+  </si>
+  <si>
+    <t>101, 58, 42</t>
+  </si>
+  <si>
+    <t>148, 155, 83</t>
+  </si>
+  <si>
+    <t>79, 114, 88</t>
+  </si>
+  <si>
+    <t>143, 128, 101</t>
+  </si>
+  <si>
+    <t>98, 107, 71</t>
+  </si>
+  <si>
+    <t>132, 133, 75</t>
+  </si>
+  <si>
+    <t>161, 154, 72</t>
+  </si>
+  <si>
+    <t>221, 205, 158</t>
+  </si>
+  <si>
+    <t>215, 154, 97</t>
+  </si>
+  <si>
+    <t>114, 135, 54</t>
+  </si>
+  <si>
+    <t>84, 102, 79</t>
+  </si>
+  <si>
+    <t>79, 71, 57</t>
+  </si>
+  <si>
+    <t>36, 81, 61</t>
+  </si>
+  <si>
+    <t>66, 133, 73</t>
+  </si>
+  <si>
+    <t>206, 132, 132</t>
+  </si>
+  <si>
+    <t>214, 197, 54</t>
+  </si>
+  <si>
+    <t>61, 74, 42</t>
+  </si>
+  <si>
+    <t>183, 169, 96</t>
+  </si>
+  <si>
+    <t>112, 43, 33</t>
+  </si>
+  <si>
+    <t>201, 187, 48</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,8 +1336,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1459,234 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EC063"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E7348"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF723C35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF446D37"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97A640"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40462C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCB762"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E934D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A181"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDAC84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF815F3E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF597732"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADAB4A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A7363"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2D197"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F3724"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFAE75"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF42684D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF653A2A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF949B53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F7258"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8F8065"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF626B47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84854B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA19A48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDCD9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD79A61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF728736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF54664F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F4739"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6C536"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE8484"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF428549"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF24513D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9BB30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF702B21"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7A960"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D4A2A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1339,7 +1700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1360,12 +1721,49 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,16 +1787,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF2F6D38"/>
-      <color rgb="FFCBC474"/>
-      <color rgb="FFD7C17D"/>
-      <color rgb="FF8B9B45"/>
-      <color rgb="FF64946B"/>
-      <color rgb="FF974F2F"/>
-      <color rgb="FFD99986"/>
-      <color rgb="FF9CD199"/>
-      <color rgb="FF66A657"/>
-      <color rgb="FF7F4949"/>
+      <color rgb="FF3D4A2A"/>
+      <color rgb="FFB7A960"/>
+      <color rgb="FF702B21"/>
+      <color rgb="FFC9BB30"/>
+      <color rgb="FFC9FFFF"/>
+      <color rgb="FF24513D"/>
+      <color rgb="FF428549"/>
+      <color rgb="FFCE8484"/>
+      <color rgb="FFD6C536"/>
+      <color rgb="FF4F4739"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1747,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC91A09-05C3-4883-A2D9-7E86495DA467}">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,54 +2167,54 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18" t="s">
+      <c r="U1" s="20"/>
+      <c r="V1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18" t="s">
+      <c r="W1" s="20"/>
+      <c r="X1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18" t="s">
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="18"/>
+      <c r="AA1" s="20"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -2676,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321ABC09-A34A-45E3-BB83-C9211358A07F}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,58 +3107,58 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
       </c>
       <c r="Q1" t="s">
         <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="U1" t="s">
-        <v>101</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -2768,37 +3166,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M2">
         <v>6</v>
@@ -2810,7 +3208,7 @@
         <v>8</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -2818,37 +3216,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -2860,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2868,37 +3266,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -2910,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2918,37 +3316,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -2960,7 +3358,7 @@
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2968,37 +3366,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>86</v>
-      </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M6">
         <v>9</v>
@@ -3010,7 +3408,7 @@
         <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3018,37 +3416,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>86</v>
-      </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7">
         <v>9</v>
@@ -3060,7 +3458,7 @@
         <v>9</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3068,37 +3466,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
         <v>83</v>
       </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M8">
         <v>8</v>
@@ -3110,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -3118,37 +3516,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" t="s">
         <v>160</v>
       </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" t="s">
-        <v>164</v>
-      </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -3160,72 +3558,72 @@
         <v>9</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
         <v>159</v>
       </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s">
-        <v>163</v>
-      </c>
       <c r="I12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3237,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E60A5AA-C027-4451-B966-CFECF96F6C4B}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3272,58 +3670,58 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
       </c>
       <c r="Q1" t="s">
         <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="U1" t="s">
-        <v>101</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -3331,37 +3729,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M2">
         <v>4.5</v>
@@ -3373,7 +3771,7 @@
         <v>5.5</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -3381,37 +3779,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -3423,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -3431,37 +3829,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M4">
         <v>5.5</v>
@@ -3473,7 +3871,7 @@
         <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -3481,37 +3879,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M5">
         <v>4.5</v>
@@ -3523,7 +3921,7 @@
         <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -3531,37 +3929,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -3573,7 +3971,7 @@
         <v>4.5</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3581,37 +3979,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M7">
         <v>5.5</v>
@@ -3623,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3631,37 +4029,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
         <v>82</v>
       </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -3673,7 +4071,7 @@
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -3681,37 +4079,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -3723,7 +4121,7 @@
         <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -3731,37 +4129,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M10">
         <v>5.5</v>
@@ -3773,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -3781,37 +4179,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -3823,7 +4221,7 @@
         <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3831,37 +4229,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
         <v>82</v>
       </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M12">
         <v>6</v>
@@ -3873,7 +4271,7 @@
         <v>6.5</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -3881,37 +4279,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -3923,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -3931,37 +4329,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -3973,7 +4371,7 @@
         <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -3981,37 +4379,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M15">
         <v>6</v>
@@ -4023,7 +4421,7 @@
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -4031,37 +4429,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s">
-        <v>85</v>
-      </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M16">
         <v>4.5</v>
@@ -4073,7 +4471,7 @@
         <v>5</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -4081,37 +4479,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
         <v>83</v>
       </c>
-      <c r="G17" t="s">
-        <v>86</v>
-      </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M17">
         <v>5.5</v>
@@ -4123,7 +4521,7 @@
         <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -4131,37 +4529,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" t="s">
         <v>154</v>
       </c>
-      <c r="C18" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" t="s">
-        <v>158</v>
-      </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -4173,7 +4571,7 @@
         <v>4.5</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -4181,37 +4579,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -4223,7 +4621,7 @@
         <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -4231,37 +4629,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M20">
         <v>4.5</v>
@@ -4273,72 +4671,72 @@
         <v>4</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
         <v>159</v>
       </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" t="s">
-        <v>163</v>
-      </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4350,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A920792F-CF3F-457F-833D-61DB879F4FB7}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4382,58 +4780,58 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
       </c>
       <c r="Q1" t="s">
         <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="U1" t="s">
-        <v>101</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -4441,37 +4839,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M2">
         <v>1.5</v>
@@ -4483,10 +4881,10 @@
         <v>1.5</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>352</v>
+        <v>193</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -4494,37 +4892,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
-        <v>90</v>
-      </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M3">
         <v>2.5</v>
@@ -4536,10 +4934,10 @@
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>351</v>
+        <v>193</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -4547,37 +4945,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -4589,10 +4987,10 @@
         <v>3.5</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>350</v>
+        <v>193</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -4600,37 +4998,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -4642,10 +5040,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>349</v>
+        <v>201</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -4653,37 +5051,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M6">
         <v>0.4</v>
@@ -4695,10 +5093,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>348</v>
+        <v>201</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -4706,37 +5104,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
         <v>209</v>
       </c>
-      <c r="D7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" t="s">
-        <v>213</v>
-      </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7">
         <v>0.3</v>
@@ -4748,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -4759,37 +5157,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
       <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
         <v>87</v>
       </c>
-      <c r="H8" t="s">
-        <v>90</v>
-      </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M8">
         <v>0.7</v>
@@ -4801,78 +5199,79 @@
         <v>0.6</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>346</v>
+        <v>193</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
         <v>87</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4881,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A892B183-95B1-429D-A4A3-E6ADC63D4933}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4903,6 +5302,7 @@
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.88671875" customWidth="1"/>
     <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -4916,58 +5316,58 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
       </c>
       <c r="Q1" t="s">
         <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="U1" t="s">
-        <v>101</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -4975,37 +5375,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M2">
         <v>0.7</v>
@@ -5017,10 +5417,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -5028,37 +5428,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M3">
         <v>1.5</v>
@@ -5070,10 +5470,10 @@
         <v>1.6</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -5081,37 +5481,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M4">
         <v>0.6</v>
@@ -5123,10 +5523,10 @@
         <v>0.8</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -5134,37 +5534,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
         <v>87</v>
       </c>
-      <c r="H5" t="s">
-        <v>90</v>
-      </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M5">
         <v>1.2</v>
@@ -5176,10 +5576,22 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q5" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="S5" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="U5" s="55" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -5187,37 +5599,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
       <c r="I6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M6">
         <v>1.5</v>
@@ -5229,10 +5641,22 @@
         <v>1.5</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q6" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="S6" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="U6" s="51" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -5240,37 +5664,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -5282,10 +5706,22 @@
         <v>2.5</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q7" t="s">
-        <v>340</v>
+        <v>336</v>
+      </c>
+      <c r="R7" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="T7" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="U7" s="50" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -5293,37 +5729,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M8">
         <v>4.5</v>
@@ -5335,10 +5771,22 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q8" t="s">
-        <v>339</v>
+        <v>335</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -5346,37 +5794,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M9">
         <v>0.4</v>
@@ -5388,10 +5836,22 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>338</v>
+        <v>193</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>334</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="U9" s="42" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -5399,37 +5859,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
         <v>87</v>
       </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
       <c r="I10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M10">
         <v>0.8</v>
@@ -5441,75 +5901,84 @@
         <v>1.3</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q10" t="s">
-        <v>337</v>
+        <v>333</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>90</v>
       </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5534,13 +6003,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5548,10 +6017,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5559,10 +6028,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -5570,10 +6039,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5598,13 +6067,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5612,10 +6081,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -5623,10 +6092,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -5634,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5662,13 +6131,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5676,10 +6145,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -5687,10 +6156,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5698,10 +6167,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5726,13 +6195,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -5740,10 +6209,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -5751,10 +6220,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5762,10 +6231,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5790,13 +6259,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -5804,10 +6273,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
@@ -5815,10 +6284,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -5826,10 +6295,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -5837,15 +6306,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5870,13 +6339,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5884,10 +6353,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -5895,10 +6364,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5906,10 +6375,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5919,245 +6388,1921 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC43BC44-11EE-4A7A-97EC-4F990AD9F102}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>334</v>
+      <c r="B8" s="18" t="s">
+        <v>330</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6170,7 +8315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC219292-3949-4AA0-84E7-7F151D5D8C5B}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:T13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6191,7 +8338,6 @@
     <col min="15" max="15" width="6.77734375" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -6205,58 +8351,58 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
       </c>
       <c r="Q1" t="s">
         <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="U1" t="s">
-        <v>101</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -6264,37 +8410,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>159</v>
       </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>163</v>
-      </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M2">
         <v>20</v>
@@ -6306,7 +8452,19 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -6317,34 +8475,34 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
         <v>159</v>
       </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>163</v>
-      </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M3">
         <v>20</v>
@@ -6356,7 +8514,19 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -6364,37 +8534,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
         <v>159</v>
       </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>163</v>
-      </c>
       <c r="I4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M4">
         <v>20</v>
@@ -6406,7 +8576,19 @@
         <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -6414,37 +8596,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5">
         <v>20</v>
@@ -6456,7 +8638,7 @@
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -6467,34 +8649,34 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" t="s">
         <v>185</v>
       </c>
-      <c r="D6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" t="s">
-        <v>189</v>
-      </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M6">
         <v>14</v>
@@ -6506,7 +8688,7 @@
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -6517,34 +8699,34 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M7">
         <v>12</v>
@@ -6556,7 +8738,7 @@
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -6567,31 +8749,31 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M8">
         <v>15</v>
@@ -6603,7 +8785,7 @@
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -6611,37 +8793,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" t="s">
         <v>177</v>
-      </c>
-      <c r="K9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" t="s">
-        <v>181</v>
       </c>
       <c r="M9">
         <v>15</v>
@@ -6653,7 +8835,7 @@
         <v>14</v>
       </c>
       <c r="P9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -6661,37 +8843,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
         <v>158</v>
       </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" t="s">
-        <v>162</v>
-      </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M10">
         <v>12</v>
@@ -6703,7 +8885,7 @@
         <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -6711,37 +8893,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" t="s">
         <v>177</v>
-      </c>
-      <c r="K11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L11" t="s">
-        <v>181</v>
       </c>
       <c r="M11">
         <v>15</v>
@@ -6753,7 +8935,7 @@
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -6761,37 +8943,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M12">
         <v>13</v>
@@ -6803,7 +8985,7 @@
         <v>9</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -6811,37 +8993,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
         <v>159</v>
       </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>163</v>
-      </c>
       <c r="I13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M13">
         <v>15</v>
@@ -6853,72 +9035,72 @@
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
         <v>159</v>
       </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s">
-        <v>163</v>
-      </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
